--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2784984-2F13-4E83-AC36-FC629F47D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB474CF-00F5-4CC7-983E-8AD2ED30B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="32130" windowHeight="15420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -431,13 +431,13 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1203</v>
       </c>
       <c r="C6" s="1">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,10 +555,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1205</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB474CF-00F5-4CC7-983E-8AD2ED30B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B42A5B-CA41-4C9B-8847-EAC80FCBAE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>50000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>50000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>50000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>50000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>70000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>70000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>70000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>70000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B42A5B-CA41-4C9B-8847-EAC80FCBAE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3322C9-3A6A-4C98-BBE1-9C8E8858D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6705" yWindow="4530" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3322C9-3A6A-4C98-BBE1-9C8E8858D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42188784-2420-4E0D-9E22-F192547557BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="4530" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -610,10 +610,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>20000000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>70000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>70000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>70000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>70000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -720,10 +720,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1012</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>90000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>90000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>90000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>90000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -775,10 +775,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2008</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42188784-2420-4E0D-9E22-F192547557BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F16DDE-90DD-4125-888B-2C0EA5A59B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,6 +781,1326 @@
         <v>50</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F16DDE-90DD-4125-888B-2C0EA5A59B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F264E-DE2F-4943-B270-9AE08550789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9030" yWindow="3255" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +75,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +102,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -98,24 +124,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,7 +480,7 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -459,21 +499,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -481,32 +522,33 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1202</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -514,21 +556,21 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -536,32 +578,35 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -569,21 +614,21 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -591,32 +636,35 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -624,21 +672,21 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -646,32 +694,35 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -679,21 +730,21 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -701,32 +752,35 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -734,21 +788,21 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -756,32 +810,35 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -789,21 +846,21 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1000000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -811,32 +868,34 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -844,21 +903,21 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -866,32 +925,34 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -899,21 +960,21 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1000000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -921,32 +982,34 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -954,21 +1017,21 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1000000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -976,32 +1039,34 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>4</v>
       </c>
-      <c r="C51" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1009,21 +1074,21 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1031,32 +1096,34 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1064,21 +1131,21 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1086,32 +1153,34 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1119,21 +1188,21 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>1000000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1141,32 +1210,34 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1174,21 +1245,21 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>1000000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1196,32 +1267,34 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1229,21 +1302,21 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>1000000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1251,32 +1324,34 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1284,21 +1359,21 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>1000000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1306,32 +1381,34 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1339,21 +1416,21 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>1000000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1361,32 +1438,34 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1394,21 +1473,21 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>1000000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1416,32 +1495,34 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>4</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1449,21 +1530,21 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C93">
         <v>1000000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1471,32 +1552,34 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>4</v>
-      </c>
-      <c r="C96" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1504,21 +1587,21 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>1000000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1526,32 +1609,34 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1559,21 +1644,21 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <v>1000000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1581,32 +1666,34 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
-        <v>4</v>
-      </c>
-      <c r="C106" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1614,21 +1701,21 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C108">
         <v>1000000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1636,32 +1723,34 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>4</v>
       </c>
-      <c r="C111" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -1669,21 +1758,21 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>1000000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -1691,32 +1780,34 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="1">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -1724,21 +1815,21 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118">
         <v>1000000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -1746,32 +1837,34 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>4</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -1779,21 +1872,21 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>1000000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -1801,32 +1894,34 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="1">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -1834,21 +1929,21 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>1000000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -1856,32 +1951,34 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>4</v>
       </c>
-      <c r="C131" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -1889,21 +1986,21 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>1000000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -1911,32 +2008,34 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="1">
-        <v>4</v>
-      </c>
-      <c r="C136" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -1944,21 +2043,21 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>1000000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -1966,32 +2065,34 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
         <v>4</v>
       </c>
-      <c r="C141" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -1999,21 +2100,21 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>1000000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2021,32 +2122,34 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="1">
-        <v>4</v>
-      </c>
-      <c r="C146" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>14</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2054,21 +2157,21 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>1000000</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2076,28 +2179,30 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="D149"/>
+    </row>
+    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C150">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="D150"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
         <v>4</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151">
         <v>50</v>
       </c>
     </row>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F264E-DE2F-4943-B270-9AE08550789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349EEBC-1C8C-4652-8896-1790821A6D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3255" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2206,6 +2206,556 @@
         <v>50</v>
       </c>
     </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>14</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>14</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349EEBC-1C8C-4652-8896-1790821A6D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90323A4E-A3A8-4D49-8AB9-56B44A6857C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2756,6 +2756,556 @@
         <v>50</v>
       </c>
     </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>14</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>14</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>14</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>14</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>14</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90323A4E-A3A8-4D49-8AB9-56B44A6857C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49D659-12C6-40A1-A967-378A008BCDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3465" yWindow="4800" windowWidth="28800" windowHeight="11205" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3306,6 +3306,270 @@
         <v>50</v>
       </c>
     </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>14</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>14</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49D659-12C6-40A1-A967-378A008BCDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E8C68-3675-4811-9E3F-24A907D5DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="4800" windowWidth="28800" windowHeight="11205" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceReward" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="E393" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3570,6 +3570,1403 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>14</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>14</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>14</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
+      </c>
+      <c r="C313">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>5</v>
+      </c>
+      <c r="C315">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>14</v>
+      </c>
+      <c r="C316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>5</v>
+      </c>
+      <c r="C318">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>5</v>
+      </c>
+      <c r="C323">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>5</v>
+      </c>
+      <c r="C325">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>14</v>
+      </c>
+      <c r="C326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>5</v>
+      </c>
+      <c r="C330">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+      <c r="C331">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>5</v>
+      </c>
+      <c r="C333">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>5</v>
+      </c>
+      <c r="C335">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>14</v>
+      </c>
+      <c r="C336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>5</v>
+      </c>
+      <c r="C338">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>5</v>
+      </c>
+      <c r="C340">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>5</v>
+      </c>
+      <c r="C343">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>14</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>5</v>
+      </c>
+      <c r="C348">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
+      </c>
+      <c r="C350">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="C353">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>14</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>5</v>
+      </c>
+      <c r="C360">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>4</v>
+      </c>
+      <c r="C361">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>5</v>
+      </c>
+      <c r="C363">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>5</v>
+      </c>
+      <c r="C365">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>14</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>5</v>
+      </c>
+      <c r="C370">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>4</v>
+      </c>
+      <c r="C371">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>5</v>
+      </c>
+      <c r="C373">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>5</v>
+      </c>
+      <c r="C375">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>14</v>
+      </c>
+      <c r="C376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>5</v>
+      </c>
+      <c r="C378">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>5</v>
+      </c>
+      <c r="C380">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>5</v>
+      </c>
+      <c r="C383">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>5</v>
+      </c>
+      <c r="C385">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>14</v>
+      </c>
+      <c r="C386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>5</v>
+      </c>
+      <c r="C388">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>4</v>
+      </c>
+      <c r="C391">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>5</v>
+      </c>
+      <c r="C395">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>14</v>
+      </c>
+      <c r="C396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E8C68-3675-4811-9E3F-24A907D5DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE76C8-075B-495C-A4E7-07F610EC2CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="E393" sqref="E393"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A503" sqref="A503:XFD506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4967,6 +4967,1106 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>14</v>
+      </c>
+      <c r="C406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+      <c r="C410">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>4</v>
+      </c>
+      <c r="C411">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>5</v>
+      </c>
+      <c r="C413">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>14</v>
+      </c>
+      <c r="C416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>5</v>
+      </c>
+      <c r="C418">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>5</v>
+      </c>
+      <c r="C420">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>4</v>
+      </c>
+      <c r="C421">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>5</v>
+      </c>
+      <c r="C423">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>5</v>
+      </c>
+      <c r="C425">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>14</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>5</v>
+      </c>
+      <c r="C430">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+      <c r="C431">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>5</v>
+      </c>
+      <c r="C433">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>5</v>
+      </c>
+      <c r="C435">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>14</v>
+      </c>
+      <c r="C436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+      <c r="C443">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>5</v>
+      </c>
+      <c r="C445">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>14</v>
+      </c>
+      <c r="C446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+      <c r="C448">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>5</v>
+      </c>
+      <c r="C450">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+      <c r="C451">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>5</v>
+      </c>
+      <c r="C453">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>5</v>
+      </c>
+      <c r="C455">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>14</v>
+      </c>
+      <c r="C456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>5</v>
+      </c>
+      <c r="C458">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>5</v>
+      </c>
+      <c r="C460">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>5</v>
+      </c>
+      <c r="C465">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>14</v>
+      </c>
+      <c r="C466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>5</v>
+      </c>
+      <c r="C468">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>5</v>
+      </c>
+      <c r="C470">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>4</v>
+      </c>
+      <c r="C471">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>5</v>
+      </c>
+      <c r="C473">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>5</v>
+      </c>
+      <c r="C475">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>14</v>
+      </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>5</v>
+      </c>
+      <c r="C478">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>5</v>
+      </c>
+      <c r="C480">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>4</v>
+      </c>
+      <c r="C481">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>5</v>
+      </c>
+      <c r="C483">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>5</v>
+      </c>
+      <c r="C485">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>14</v>
+      </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>5</v>
+      </c>
+      <c r="C488">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>5</v>
+      </c>
+      <c r="C490">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>4</v>
+      </c>
+      <c r="C491">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>14</v>
+      </c>
+      <c r="C496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>5</v>
+      </c>
+      <c r="C498">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>4</v>
+      </c>
+      <c r="C501">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/AttendanceReward.xlsx
+++ b/Assets/06.Table/AttendanceReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1791B43-3918-4891-AB1E-8302036E4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF125C8-4E9D-410F-8CCE-C898E6613B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AC502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182:E193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>10000</v>
